--- a/data/trans_dic/P12A1_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación &lt;16 años</t>
+          <t>Población con alguna limitación &lt;16 años (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +667,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +687,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +697,22 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 39,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>47,44%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>55,42%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,92%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,84%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47,1%</t>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,98%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,95%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,08</t>
+          <t>0,0; 13,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 87,01</t>
+          <t>2,04; 46,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,87; 90,35</t>
+          <t>3,69; 49,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,91</t>
+          <t>1,64; 50,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 9,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,65</t>
+          <t>0,0; 7,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 57,79</t>
+          <t>0,0; 9,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 84,62</t>
+          <t>1,8; 13,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,63; 83,27</t>
+          <t>0,84; 8,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 30,91</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 33,48</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 35,26</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>66,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>46,44%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,52%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 95,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 92,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,61; 57,25</t>
+          <t>0,0; 10,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,07; 68,81</t>
+          <t>0,94; 10,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 64,73</t>
+          <t>0,92; 9,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,97; 75,62</t>
+          <t>0,93; 10,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,26; 78,94</t>
+          <t>0,0; 4,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,04; 88,35</t>
+          <t>0,58; 6,59</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 5,9</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 6,5</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,74</t>
         </is>
       </c>
     </row>
@@ -962,27 +1077,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -992,17 +1107,32 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,19</t>
+          <t>0,0; 7,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,26</t>
+          <t>0,0; 7,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,6</t>
+          <t>0,0; 7,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,58</t>
+          <t>0,0; 6,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0,0; 5,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 17,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,52</t>
+          <t>0,53; 4,5</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,36</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,52</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,32</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1092,25 +1237,40 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,66</t>
+          <t>0,0; 6,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,0; 9,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>0,0; 3,65</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,79</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1221,6 +1396,21 @@
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,76; 36,49</t>
+          <t>0,51; 3,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 37,55</t>
+          <t>0,63; 12,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,97; 47,74</t>
+          <t>0,91; 13,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,42; 17,92</t>
+          <t>1,17; 16,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,57</t>
+          <t>0,71; 3,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 15,77</t>
+          <t>0,43; 3,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 23,0</t>
+          <t>0,62; 3,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,15; 24,0</t>
+          <t>0,4; 2,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,47; 35,45</t>
+          <t>0,82; 2,73</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 6,48</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 7,35</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 7,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación &lt;16 años (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5752</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22278</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>28169</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37098</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9530</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10812</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24255</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32164</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>46628</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 23268</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2923; 66148</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5690; 76539</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3734; 114448</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16126</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9740</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12175</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2926; 22537</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2816; 28742</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4803; 83479</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9002; 93935</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11641; 137523</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5385</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11116</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7027</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8514</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11116</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7027</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8514</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7523</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19583</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2495; 27681</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1920; 19944</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1860; 21502</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11805</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2479; 28090</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1940; 20293</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1831; 21981</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19787</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2724</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6731</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2724</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13968</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11471</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11081</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13388</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12110</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2132; 18226</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8196</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8273</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13595</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1699</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1699</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9752</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8488</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9994</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8569</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>12329</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>24302</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>30146</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>45207</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>18310</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>10703</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>12509</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>11667</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>30639</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>35005</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>42655</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>56875</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4558; 29193</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4818; 93882</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7202; 110029</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>12124; 167866</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>7323; 36674</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3625; 25205</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5147; 27701</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4359; 27129</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>15737; 52631</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>14144; 103957</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>17757; 118686</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>22232; 162574</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>